--- a/test_scenario/test_stations.xlsx
+++ b/test_scenario/test_stations.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>station</t>
   </si>
@@ -31,90 +31,6 @@
     <t>esr</t>
   </si>
   <si>
-    <t>2000036120</t>
-  </si>
-  <si>
-    <t>2000036122</t>
-  </si>
-  <si>
-    <t>2000036124</t>
-  </si>
-  <si>
-    <t>2000039646</t>
-  </si>
-  <si>
-    <t>2000036126</t>
-  </si>
-  <si>
-    <t>2000036128</t>
-  </si>
-  <si>
-    <t>2000036136</t>
-  </si>
-  <si>
-    <t>2000036218</t>
-  </si>
-  <si>
-    <t>2000036142</t>
-  </si>
-  <si>
-    <t>2000036154</t>
-  </si>
-  <si>
-    <t>2000036192</t>
-  </si>
-  <si>
-    <t>2000036204</t>
-  </si>
-  <si>
-    <t>2000036228</t>
-  </si>
-  <si>
-    <t>2000036258</t>
-  </si>
-  <si>
-    <t>2000036518</t>
-  </si>
-  <si>
-    <t>2000036538</t>
-  </si>
-  <si>
-    <t>2000036784</t>
-  </si>
-  <si>
-    <t>2000036792</t>
-  </si>
-  <si>
-    <t>2000036796</t>
-  </si>
-  <si>
-    <t>2000036800</t>
-  </si>
-  <si>
-    <t>2000036894</t>
-  </si>
-  <si>
-    <t>2000036902</t>
-  </si>
-  <si>
-    <t>2000036904</t>
-  </si>
-  <si>
-    <t>2000036868</t>
-  </si>
-  <si>
-    <t>2000036872</t>
-  </si>
-  <si>
-    <t>2000036932</t>
-  </si>
-  <si>
-    <t>2000036950</t>
-  </si>
-  <si>
-    <t>2000036954</t>
-  </si>
-  <si>
     <t>ЗВЕЗДНАЯ</t>
   </si>
   <si>
@@ -206,6 +122,15 @@
   </si>
   <si>
     <t>47</t>
+  </si>
+  <si>
+    <t>ИЛАНСКАЯ</t>
+  </si>
+  <si>
+    <t>РЕШОТЫ</t>
+  </si>
+  <si>
+    <t>КЛЮЧИ</t>
   </si>
 </sst>
 </file>
@@ -264,12 +189,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,516 +532,570 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>2000036018</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>5400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>89370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000036056</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>86410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000036110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>89613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2000036538</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
+      <c r="E5">
         <v>92020</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2000036518</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>8280</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
+      <c r="E6">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2000036518</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>8280</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>92000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>8280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>92000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2000036784</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
+      <c r="E8">
         <v>92421</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2000036792</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6">
+      <c r="E9">
         <v>92430</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2000036796</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>6372</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
+      <c r="E10">
+        <v>92440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2000036800</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>92442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2000036894</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>92491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2000036902</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2000036904</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>92510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2000036868</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>6372</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>92440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>92442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>92491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10">
-        <v>92500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11">
-        <v>92510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12">
-        <v>6372</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12">
+      <c r="E15">
         <v>92570</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2000036872</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13">
+      <c r="E16">
         <v>92580</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2000036932</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>6516</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14">
+      <c r="E17">
+        <v>92710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2000036932</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
         <v>6516</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
         <v>92710</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15">
-        <v>6516</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15">
-        <v>92710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2000036950</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16">
+      <c r="E19">
         <v>92760</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2000036954</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>2412</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17">
-        <v>2412</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17">
+      <c r="E20">
         <v>92780</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2000036120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
+      <c r="E21">
         <v>90220</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2000036122</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
+      <c r="E22">
         <v>90223</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2000036124</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
+      <c r="E23">
         <v>90230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2000039646</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21">
+      <c r="E24">
         <v>90231</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2000036126</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
+      <c r="E25">
         <v>90250</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2000036128</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
+      <c r="E26">
         <v>90270</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2000036136</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
+      <c r="E27">
         <v>90300</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2000036218</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
+      <c r="E28">
         <v>90312</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2000036142</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26">
+      <c r="E29">
         <v>90318</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2000036154</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>5526</v>
+      </c>
+      <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27">
-        <v>5526</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27">
+      <c r="E30">
         <v>90320</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2000036192</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>3906</v>
+      </c>
+      <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28">
-        <v>3906</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28">
+      <c r="E31">
         <v>90360</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2000036204</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29">
+      <c r="E32">
         <v>90392</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2000036258</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30">
+      <c r="E33">
         <v>90571</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2000036228</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>5796</v>
+      </c>
+      <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>5796</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
+      <c r="E34">
         <v>90440</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B34" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>